--- a/output/ejecucion_2/results/base0_ci_results_test.xlsx
+++ b/output/ejecucion_2/results/base0_ci_results_test.xlsx
@@ -516,34 +516,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.723</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C2">
-        <v>0.533</v>
+        <v>0.516</v>
       </c>
       <c r="D2">
-        <v>0.499</v>
+        <v>0.357</v>
       </c>
       <c r="E2">
-        <v>0.115</v>
+        <v>0.093</v>
       </c>
       <c r="F2">
-        <v>0.458</v>
+        <v>0.474</v>
       </c>
       <c r="G2">
-        <v>0.117</v>
+        <v>0.101</v>
       </c>
       <c r="H2">
-        <v>0.186</v>
+        <v>0.167</v>
       </c>
       <c r="I2">
-        <v>0.742</v>
+        <v>0.699</v>
       </c>
       <c r="J2">
-        <v>0.948</v>
+        <v>0.949</v>
       </c>
       <c r="K2">
-        <v>0.833</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -551,34 +551,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.46</v>
+        <v>0.418</v>
       </c>
       <c r="C3">
         <v>0.573</v>
       </c>
       <c r="D3">
-        <v>0.499</v>
+        <v>0.357</v>
       </c>
       <c r="E3">
-        <v>0.066</v>
+        <v>0.062</v>
       </c>
       <c r="F3">
-        <v>0.293</v>
+        <v>0.327</v>
       </c>
       <c r="G3">
-        <v>0.702</v>
+        <v>0.82</v>
       </c>
       <c r="H3">
-        <v>0.414</v>
+        <v>0.468</v>
       </c>
       <c r="I3">
-        <v>0.769</v>
+        <v>0.742</v>
       </c>
       <c r="J3">
-        <v>0.369</v>
+        <v>0.235</v>
       </c>
       <c r="K3">
-        <v>0.499</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -586,34 +586,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
       <c r="C4">
-        <v>0.5639999999999999</v>
+        <v>0.584</v>
       </c>
       <c r="D4">
-        <v>0.471</v>
+        <v>0.44</v>
       </c>
       <c r="E4">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="F4">
-        <v>0.288</v>
+        <v>0.327</v>
       </c>
       <c r="G4">
-        <v>0.713</v>
+        <v>0.73</v>
       </c>
       <c r="H4">
-        <v>0.41</v>
+        <v>0.451</v>
       </c>
       <c r="I4">
-        <v>0.761</v>
+        <v>0.721</v>
       </c>
       <c r="J4">
-        <v>0.341</v>
+        <v>0.316</v>
       </c>
       <c r="K4">
-        <v>0.471</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -621,34 +621,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.46</v>
+        <v>0.418</v>
       </c>
       <c r="C5">
-        <v>0.5570000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="D5">
-        <v>0.512</v>
+        <v>0.366</v>
       </c>
       <c r="E5">
-        <v>0.035</v>
+        <v>0.047</v>
       </c>
       <c r="F5">
-        <v>0.288</v>
+        <v>0.327</v>
       </c>
       <c r="G5">
-        <v>0.713</v>
+        <v>0.73</v>
       </c>
       <c r="H5">
-        <v>0.41</v>
+        <v>0.451</v>
       </c>
       <c r="I5">
-        <v>0.761</v>
+        <v>0.721</v>
       </c>
       <c r="J5">
-        <v>0.341</v>
+        <v>0.316</v>
       </c>
       <c r="K5">
-        <v>0.471</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -656,34 +656,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.714</v>
+        <v>0.695</v>
       </c>
       <c r="C6">
-        <v>0.452</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>0.83</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>0.115</v>
       </c>
       <c r="F6">
-        <v>0.333</v>
+        <v>0.625</v>
       </c>
       <c r="G6">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="H6">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
       <c r="I6">
-        <v>0.731</v>
+        <v>0.697</v>
       </c>
       <c r="J6">
-        <v>0.96</v>
+        <v>0.985</v>
       </c>
       <c r="K6">
-        <v>0.83</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,34 +691,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.361</v>
+        <v>0.453</v>
       </c>
       <c r="C7">
-        <v>0.541</v>
+        <v>0.587</v>
       </c>
       <c r="D7">
-        <v>0.312</v>
+        <v>0.431</v>
       </c>
       <c r="E7">
-        <v>-0.004</v>
+        <v>0.091</v>
       </c>
       <c r="F7">
-        <v>0.271</v>
+        <v>0.338</v>
       </c>
       <c r="G7">
-        <v>0.798</v>
+        <v>0.787</v>
       </c>
       <c r="H7">
-        <v>0.404</v>
+        <v>0.473</v>
       </c>
       <c r="I7">
-        <v>0.725</v>
+        <v>0.756</v>
       </c>
       <c r="J7">
-        <v>0.198</v>
+        <v>0.301</v>
       </c>
       <c r="K7">
-        <v>0.312</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,34 +726,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.364</v>
+        <v>0.463</v>
       </c>
       <c r="C8">
-        <v>0.544</v>
+        <v>0.547</v>
       </c>
       <c r="D8">
-        <v>0.312</v>
+        <v>0.488</v>
       </c>
       <c r="E8">
-        <v>0.008</v>
+        <v>0.034</v>
       </c>
       <c r="F8">
-        <v>0.273</v>
+        <v>0.324</v>
       </c>
       <c r="G8">
-        <v>0.8090000000000001</v>
+        <v>0.663</v>
       </c>
       <c r="H8">
-        <v>0.409</v>
+        <v>0.435</v>
       </c>
       <c r="I8">
-        <v>0.735</v>
+        <v>0.709</v>
       </c>
       <c r="J8">
-        <v>0.198</v>
+        <v>0.372</v>
       </c>
       <c r="K8">
-        <v>0.312</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,34 +761,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.373</v>
+        <v>0.453</v>
       </c>
       <c r="C9">
-        <v>0.547</v>
+        <v>0.585</v>
       </c>
       <c r="D9">
-        <v>0.328</v>
+        <v>0.443</v>
       </c>
       <c r="E9">
-        <v>0.021</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F9">
-        <v>0.276</v>
+        <v>0.333</v>
       </c>
       <c r="G9">
-        <v>0.8090000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="H9">
-        <v>0.412</v>
+        <v>0.462</v>
       </c>
       <c r="I9">
-        <v>0.746</v>
+        <v>0.738</v>
       </c>
       <c r="J9">
-        <v>0.21</v>
+        <v>0.316</v>
       </c>
       <c r="K9">
-        <v>0.328</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -796,34 +796,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.714</v>
+        <v>0.695</v>
       </c>
       <c r="C10">
-        <v>0.452</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.83</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.115</v>
       </c>
       <c r="F10">
-        <v>0.333</v>
+        <v>0.625</v>
       </c>
       <c r="G10">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="H10">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
       <c r="I10">
-        <v>0.731</v>
+        <v>0.697</v>
       </c>
       <c r="J10">
-        <v>0.96</v>
+        <v>0.985</v>
       </c>
       <c r="K10">
-        <v>0.83</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -831,34 +831,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.361</v>
+        <v>0.449</v>
       </c>
       <c r="C11">
-        <v>0.541</v>
+        <v>0.587</v>
       </c>
       <c r="D11">
-        <v>0.312</v>
+        <v>0.429</v>
       </c>
       <c r="E11">
-        <v>-0.004</v>
+        <v>0.079</v>
       </c>
       <c r="F11">
-        <v>0.271</v>
+        <v>0.335</v>
       </c>
       <c r="G11">
-        <v>0.798</v>
+        <v>0.775</v>
       </c>
       <c r="H11">
-        <v>0.404</v>
+        <v>0.468</v>
       </c>
       <c r="I11">
-        <v>0.725</v>
+        <v>0.747</v>
       </c>
       <c r="J11">
-        <v>0.198</v>
+        <v>0.301</v>
       </c>
       <c r="K11">
-        <v>0.312</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -866,34 +866,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.364</v>
+        <v>0.463</v>
       </c>
       <c r="C12">
-        <v>0.544</v>
+        <v>0.547</v>
       </c>
       <c r="D12">
-        <v>0.312</v>
+        <v>0.488</v>
       </c>
       <c r="E12">
-        <v>0.008</v>
+        <v>0.034</v>
       </c>
       <c r="F12">
-        <v>0.273</v>
+        <v>0.324</v>
       </c>
       <c r="G12">
-        <v>0.8090000000000001</v>
+        <v>0.663</v>
       </c>
       <c r="H12">
-        <v>0.409</v>
+        <v>0.435</v>
       </c>
       <c r="I12">
-        <v>0.735</v>
+        <v>0.709</v>
       </c>
       <c r="J12">
-        <v>0.198</v>
+        <v>0.372</v>
       </c>
       <c r="K12">
-        <v>0.312</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -901,34 +901,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.373</v>
+        <v>0.453</v>
       </c>
       <c r="C13">
-        <v>0.547</v>
+        <v>0.585</v>
       </c>
       <c r="D13">
-        <v>0.328</v>
+        <v>0.443</v>
       </c>
       <c r="E13">
-        <v>0.021</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F13">
-        <v>0.276</v>
+        <v>0.333</v>
       </c>
       <c r="G13">
-        <v>0.8090000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="H13">
-        <v>0.412</v>
+        <v>0.462</v>
       </c>
       <c r="I13">
-        <v>0.746</v>
+        <v>0.738</v>
       </c>
       <c r="J13">
-        <v>0.21</v>
+        <v>0.316</v>
       </c>
       <c r="K13">
-        <v>0.328</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -936,34 +936,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.714</v>
+        <v>0.695</v>
       </c>
       <c r="C14">
-        <v>0.452</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>0.83</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E14">
-        <v>0.03</v>
+        <v>0.115</v>
       </c>
       <c r="F14">
-        <v>0.333</v>
+        <v>0.625</v>
       </c>
       <c r="G14">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="H14">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
       <c r="I14">
-        <v>0.731</v>
+        <v>0.697</v>
       </c>
       <c r="J14">
-        <v>0.96</v>
+        <v>0.985</v>
       </c>
       <c r="K14">
-        <v>0.83</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -971,34 +971,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.361</v>
+        <v>0.453</v>
       </c>
       <c r="C15">
-        <v>0.541</v>
+        <v>0.587</v>
       </c>
       <c r="D15">
-        <v>0.312</v>
+        <v>0.431</v>
       </c>
       <c r="E15">
-        <v>-0.004</v>
+        <v>0.091</v>
       </c>
       <c r="F15">
-        <v>0.271</v>
+        <v>0.338</v>
       </c>
       <c r="G15">
-        <v>0.798</v>
+        <v>0.787</v>
       </c>
       <c r="H15">
-        <v>0.404</v>
+        <v>0.473</v>
       </c>
       <c r="I15">
-        <v>0.725</v>
+        <v>0.756</v>
       </c>
       <c r="J15">
-        <v>0.198</v>
+        <v>0.301</v>
       </c>
       <c r="K15">
-        <v>0.312</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1006,34 +1006,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.364</v>
+        <v>0.463</v>
       </c>
       <c r="C16">
-        <v>0.544</v>
+        <v>0.547</v>
       </c>
       <c r="D16">
-        <v>0.312</v>
+        <v>0.488</v>
       </c>
       <c r="E16">
-        <v>0.008</v>
+        <v>0.034</v>
       </c>
       <c r="F16">
-        <v>0.273</v>
+        <v>0.324</v>
       </c>
       <c r="G16">
-        <v>0.8090000000000001</v>
+        <v>0.663</v>
       </c>
       <c r="H16">
-        <v>0.409</v>
+        <v>0.435</v>
       </c>
       <c r="I16">
-        <v>0.735</v>
+        <v>0.709</v>
       </c>
       <c r="J16">
-        <v>0.198</v>
+        <v>0.372</v>
       </c>
       <c r="K16">
-        <v>0.312</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1041,34 +1041,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.373</v>
+        <v>0.453</v>
       </c>
       <c r="C17">
-        <v>0.547</v>
+        <v>0.585</v>
       </c>
       <c r="D17">
-        <v>0.328</v>
+        <v>0.443</v>
       </c>
       <c r="E17">
-        <v>0.021</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17">
-        <v>0.276</v>
+        <v>0.333</v>
       </c>
       <c r="G17">
-        <v>0.8090000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="H17">
-        <v>0.412</v>
+        <v>0.462</v>
       </c>
       <c r="I17">
-        <v>0.746</v>
+        <v>0.738</v>
       </c>
       <c r="J17">
-        <v>0.21</v>
+        <v>0.316</v>
       </c>
       <c r="K17">
-        <v>0.328</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1076,34 +1076,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.717</v>
+        <v>0.681</v>
       </c>
       <c r="C18">
         <v>0.671</v>
       </c>
       <c r="D18">
-        <v>0.823</v>
+        <v>0.788</v>
       </c>
       <c r="E18">
-        <v>0.157</v>
+        <v>0.172</v>
       </c>
       <c r="F18">
-        <v>0.455</v>
+        <v>0.481</v>
       </c>
       <c r="G18">
-        <v>0.213</v>
+        <v>0.281</v>
       </c>
       <c r="H18">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="I18">
-        <v>0.755</v>
+        <v>0.725</v>
       </c>
       <c r="J18">
-        <v>0.905</v>
+        <v>0.862</v>
       </c>
       <c r="K18">
-        <v>0.823</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1111,34 +1111,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.731</v>
+        <v>0.709</v>
       </c>
       <c r="C19">
-        <v>0.695</v>
+        <v>0.681</v>
       </c>
       <c r="D19">
-        <v>0.825</v>
+        <v>0.801</v>
       </c>
       <c r="E19">
-        <v>0.26</v>
+        <v>0.272</v>
       </c>
       <c r="F19">
-        <v>0.507</v>
+        <v>0.547</v>
       </c>
       <c r="G19">
-        <v>0.362</v>
+        <v>0.393</v>
       </c>
       <c r="H19">
-        <v>0.422</v>
+        <v>0.458</v>
       </c>
       <c r="I19">
-        <v>0.785</v>
+        <v>0.756</v>
       </c>
       <c r="J19">
-        <v>0.869</v>
+        <v>0.852</v>
       </c>
       <c r="K19">
-        <v>0.825</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1146,34 +1146,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.734</v>
+        <v>0.705</v>
       </c>
       <c r="C20">
-        <v>0.694</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D20">
-        <v>0.826</v>
+        <v>0.8</v>
       </c>
       <c r="E20">
-        <v>0.275</v>
+        <v>0.258</v>
       </c>
       <c r="F20">
-        <v>0.514</v>
+        <v>0.541</v>
       </c>
       <c r="G20">
-        <v>0.383</v>
+        <v>0.371</v>
       </c>
       <c r="H20">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="I20">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="J20">
-        <v>0.865</v>
+        <v>0.857</v>
       </c>
       <c r="K20">
-        <v>0.826</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1181,34 +1181,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.746</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C21">
-        <v>0.6929999999999999</v>
+        <v>0.676</v>
       </c>
       <c r="D21">
-        <v>0.837</v>
+        <v>0.787</v>
       </c>
       <c r="E21">
-        <v>0.283</v>
+        <v>0.233</v>
       </c>
       <c r="F21">
-        <v>0.552</v>
+        <v>0.507</v>
       </c>
       <c r="G21">
-        <v>0.34</v>
+        <v>0.382</v>
       </c>
       <c r="H21">
-        <v>0.421</v>
+        <v>0.436</v>
       </c>
       <c r="I21">
-        <v>0.785</v>
+        <v>0.748</v>
       </c>
       <c r="J21">
-        <v>0.897</v>
+        <v>0.832</v>
       </c>
       <c r="K21">
-        <v>0.837</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1216,34 +1216,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.717</v>
+        <v>0.674</v>
       </c>
       <c r="C22">
-        <v>0.665</v>
+        <v>0.651</v>
       </c>
       <c r="D22">
-        <v>0.821</v>
+        <v>0.778</v>
       </c>
       <c r="E22">
-        <v>0.174</v>
+        <v>0.177</v>
       </c>
       <c r="F22">
-        <v>0.46</v>
+        <v>0.468</v>
       </c>
       <c r="G22">
-        <v>0.245</v>
+        <v>0.326</v>
       </c>
       <c r="H22">
-        <v>0.319</v>
+        <v>0.384</v>
       </c>
       <c r="I22">
-        <v>0.76</v>
+        <v>0.731</v>
       </c>
       <c r="J22">
-        <v>0.893</v>
+        <v>0.832</v>
       </c>
       <c r="K22">
-        <v>0.821</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1251,34 +1251,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.711</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C23">
-        <v>0.654</v>
+        <v>0.651</v>
       </c>
       <c r="D23">
-        <v>0.8129999999999999</v>
+        <v>0.782</v>
       </c>
       <c r="E23">
-        <v>0.189</v>
+        <v>0.22</v>
       </c>
       <c r="F23">
-        <v>0.452</v>
+        <v>0.493</v>
       </c>
       <c r="G23">
-        <v>0.298</v>
+        <v>0.382</v>
       </c>
       <c r="H23">
-        <v>0.359</v>
+        <v>0.43</v>
       </c>
       <c r="I23">
-        <v>0.768</v>
+        <v>0.745</v>
       </c>
       <c r="J23">
-        <v>0.865</v>
+        <v>0.821</v>
       </c>
       <c r="K23">
-        <v>0.8129999999999999</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1286,34 +1286,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.708</v>
+        <v>0.649</v>
       </c>
       <c r="C24">
-        <v>0.649</v>
+        <v>0.6</v>
       </c>
       <c r="D24">
-        <v>0.8129999999999999</v>
+        <v>0.762</v>
       </c>
       <c r="E24">
-        <v>0.167</v>
+        <v>0.11</v>
       </c>
       <c r="F24">
-        <v>0.439</v>
+        <v>0.41</v>
       </c>
       <c r="G24">
-        <v>0.266</v>
+        <v>0.281</v>
       </c>
       <c r="H24">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="I24">
-        <v>0.761</v>
+        <v>0.714</v>
       </c>
       <c r="J24">
-        <v>0.873</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="K24">
-        <v>0.8129999999999999</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1321,34 +1321,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.705</v>
+        <v>0.667</v>
       </c>
       <c r="C25">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="D25">
-        <v>0.8080000000000001</v>
+        <v>0.764</v>
       </c>
       <c r="E25">
-        <v>0.188</v>
+        <v>0.198</v>
       </c>
       <c r="F25">
-        <v>0.441</v>
+        <v>0.462</v>
       </c>
       <c r="G25">
-        <v>0.319</v>
+        <v>0.404</v>
       </c>
       <c r="H25">
-        <v>0.37</v>
+        <v>0.431</v>
       </c>
       <c r="I25">
-        <v>0.77</v>
+        <v>0.744</v>
       </c>
       <c r="J25">
-        <v>0.849</v>
+        <v>0.786</v>
       </c>
       <c r="K25">
-        <v>0.8080000000000001</v>
+        <v>0.764</v>
       </c>
     </row>
   </sheetData>
